--- a/image/operationoutcome.xlsx
+++ b/image/operationoutcome.xlsx
@@ -675,43 +675,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.8359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="43.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="43.1953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="242.78125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="245.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/operationoutcome.xlsx
+++ b/image/operationoutcome.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="166">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -356,10 +356,6 @@
   </si>
   <si>
     <t>OperationOutcome.issue.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -675,43 +671,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="43.1953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="43.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="245.55859375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="242.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1900,13 +1896,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1957,7 +1953,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -1972,7 +1968,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -1980,7 +1976,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2009,7 +2005,7 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>95</v>
@@ -2062,7 +2058,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2077,7 +2073,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2085,11 +2081,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2111,10 +2107,10 @@
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>95</v>
@@ -2169,7 +2165,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2192,7 +2188,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2218,16 +2214,16 @@
         <v>66</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>38</v>
@@ -2252,14 +2248,14 @@
         <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>38</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>47</v>
@@ -2291,15 +2287,15 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2325,14 +2321,14 @@
         <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>38</v>
@@ -2357,14 +2353,14 @@
         <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2381,7 +2377,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>47</v>
@@ -2396,15 +2392,15 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2427,16 +2423,16 @@
         <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2462,14 +2458,14 @@
         <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>38</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2501,15 +2497,15 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2532,16 +2528,16 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2591,7 +2587,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2606,15 +2602,15 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2637,19 +2633,19 @@
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>38</v>
@@ -2698,7 +2694,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2713,15 +2709,15 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2744,19 +2740,19 @@
         <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>38</v>
@@ -2805,7 +2801,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -2820,10 +2816,10 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
